--- a/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
+++ b/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25428"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\NEW_US\InputData\trans\BPoEFUbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\trans\BPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="699" documentId="13_ncr:1_{EC90B392-4732-4699-82A6-703DA433659C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFD43822-83E6-4541-BC94-8D02FDF67979}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934E38DF-65AC-4A44-9724-3CA73F7E8AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="750" windowWidth="24405" windowHeight="16650" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -317,7 +317,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,7 +483,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -506,10 +506,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -906,23 +903,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -931,266 +928,250 @@
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="11"/>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C50" s="11"/>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="11"/>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="16"/>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="11"/>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="11"/>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="11"/>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="11"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1213,12 +1194,12 @@
       <selection activeCell="AF10" sqref="AF10:AH10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -1354,7 +1335,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1458,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1562,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1667,7 +1648,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1771,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1876,7 +1857,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1980,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -2084,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -2188,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -2292,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -2412,12 +2393,12 @@
       <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -2553,7 +2534,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -2657,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -2761,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -2866,7 +2847,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -2970,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -3075,7 +3056,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -3179,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -3283,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -3387,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3491,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -3609,7 +3590,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3626,13 +3607,13 @@
       <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -3736,7 +3717,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -3840,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -3944,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -4048,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -4152,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -4256,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -4360,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -4464,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -4568,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -4672,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -4792,13 +4773,13 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -4902,7 +4883,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -5006,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -5110,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -5214,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -5318,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -5422,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -5526,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -5630,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -5734,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -5838,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -5958,12 +5939,12 @@
       <selection activeCell="AF7" sqref="AF7:AH11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -6099,7 +6080,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -6203,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -6307,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -6446,7 +6427,7 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -6550,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -6656,7 +6637,7 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -6760,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -6864,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -6968,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -7072,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -7195,12 +7176,12 @@
       <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -7336,7 +7317,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -7440,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -7544,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -7648,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -7785,7 +7766,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -7889,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -7993,7 +7974,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -8097,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -8201,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -8305,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -8425,12 +8406,12 @@
       <selection activeCell="B6" sqref="B6:AH6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30">
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -8566,7 +8547,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -8703,7 +8684,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -8807,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -8947,7 +8928,7 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -9051,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -9190,7 +9171,7 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -9294,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -9398,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -9502,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -9606,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -9729,12 +9710,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -9870,7 +9851,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -9974,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -10078,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -10183,7 +10164,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -10287,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -10392,7 +10373,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -10496,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -10600,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -10704,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -10808,7 +10789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -10928,12 +10909,12 @@
       <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -11069,7 +11050,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -11173,7 +11154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -11277,7 +11258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -11382,7 +11363,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -11486,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -11591,7 +11572,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -11695,7 +11676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -11799,7 +11780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -11903,7 +11884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -12007,7 +11988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -12122,44 +12103,44 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -12178,7 +12159,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12195,13 +12176,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -12305,7 +12286,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -12409,7 +12390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -12513,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -12617,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -12721,7 +12702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -12825,7 +12806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -12929,7 +12910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -13033,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -13137,7 +13118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -13241,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -13361,13 +13342,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -13471,7 +13452,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -13575,7 +13556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -13679,7 +13660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -13783,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -13887,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -13991,7 +13972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -14095,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -14199,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -14303,7 +14284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -14407,7 +14388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -14527,13 +14508,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -14637,7 +14618,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -14741,7 +14722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -14845,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -14982,7 +14963,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -15086,7 +15067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -15190,7 +15171,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -15294,7 +15275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -15398,7 +15379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -15502,7 +15483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -15606,7 +15587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -15726,12 +15707,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -15867,7 +15848,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -15971,7 +15952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -16075,7 +16056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -16179,7 +16160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -16316,7 +16297,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -16420,7 +16401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -16524,7 +16505,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -16628,7 +16609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -16732,7 +16713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -16836,7 +16817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -16956,12 +16937,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -17097,7 +17078,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -17234,7 +17215,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -17338,7 +17319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -17442,7 +17423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -17579,7 +17560,7 @@
         <v>0.43874999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -17683,7 +17664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -17820,7 +17801,7 @@
         <v>1.125E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -17924,7 +17905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -18028,7 +18009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -18132,7 +18113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -18252,12 +18233,12 @@
       <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -18393,7 +18374,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -18497,7 +18478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -18601,7 +18582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -18706,7 +18687,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -18810,7 +18791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -18915,7 +18896,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -19019,7 +19000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -19123,7 +19104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -19227,7 +19208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -19331,7 +19312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -19451,12 +19432,12 @@
       <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -19592,7 +19573,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -19696,7 +19677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -19800,7 +19781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -19905,7 +19886,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -20009,7 +19990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -20114,7 +20095,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -20218,7 +20199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -20322,7 +20303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -20426,7 +20407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -20530,7 +20511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -20648,7 +20629,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20665,13 +20646,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -20775,7 +20756,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -20879,7 +20860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -20983,7 +20964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -21087,7 +21068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -21191,7 +21172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -21295,7 +21276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -21399,7 +21380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -21503,7 +21484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -21607,7 +21588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -21711,7 +21692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -21828,13 +21809,13 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2010</v>
       </c>
@@ -21871,7 +21852,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -21903,7 +21884,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -21935,12 +21916,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -21962,13 +21943,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -22072,7 +22053,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -22176,7 +22157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -22280,7 +22261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -22384,7 +22365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -22488,7 +22469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -22592,7 +22573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -22696,7 +22677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -22800,7 +22781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -22904,7 +22885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -23008,7 +22989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -23125,15 +23106,15 @@
   <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -23269,7 +23250,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -23373,7 +23354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -23477,146 +23458,145 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="2">
-        <f>1-B6</f>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:AH4" si="1">1-C6</f>
-        <v>0.93500000000000005</v>
+        <f>B4</f>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <f t="shared" ref="D4:AH4" si="1">C4</f>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="1"/>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -23720,146 +23700,145 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="2">
-        <f>0.065</f>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:AH6" si="2">0.065</f>
-        <v>6.5000000000000002E-2</v>
+        <f>B6</f>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" ref="D6:AH6" si="2">C6</f>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -23963,7 +23942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -24067,7 +24046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -24171,7 +24150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -24275,7 +24254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -24391,16 +24370,16 @@
   </sheetPr>
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -24536,7 +24515,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -24640,7 +24619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -24744,7 +24723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -24848,144 +24827,143 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
       <c r="B5">
-        <f>1-B7</f>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:AH5" si="1">1-C7</f>
-        <v>0.97499999999999998</v>
+        <f>B5</f>
+        <v>1</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <f t="shared" ref="D5:AH5" si="1">C5</f>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -25089,111 +25067,143 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
       <c r="B7">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.5000000000000001E-2</v>
+        <f>B7</f>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" ref="D7:AH7" si="2">C7</f>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -25297,7 +25307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -25401,7 +25411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -25505,7 +25515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -25625,12 +25635,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -25766,7 +25776,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -25903,7 +25913,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -26007,7 +26017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -26111,7 +26121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -26248,7 +26258,7 @@
         <v>0.43874999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -26352,7 +26362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -26489,7 +26499,7 @@
         <v>1.125E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -26593,7 +26603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -26697,7 +26707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -26801,7 +26811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -26921,12 +26931,12 @@
       <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -27062,7 +27072,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -27166,7 +27176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -27270,7 +27280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -27375,7 +27385,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -27479,7 +27489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -27584,7 +27594,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -27688,7 +27698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -27792,7 +27802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -27896,7 +27906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -28000,7 +28010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -28120,12 +28130,12 @@
       <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -28261,7 +28271,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -28365,7 +28375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -28469,7 +28479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -28574,7 +28584,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -28678,7 +28688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -28783,7 +28793,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -28887,7 +28897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -28991,7 +29001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -29095,7 +29105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -29199,7 +29209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -29317,7 +29327,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29334,13 +29344,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -29444,7 +29454,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -29548,7 +29558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -29652,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -29756,7 +29766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -29860,7 +29870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -29964,7 +29974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -30068,7 +30078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -30172,7 +30182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -30276,7 +30286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -30380,7 +30390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -30500,13 +30510,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -30610,7 +30620,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -30714,7 +30724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -30818,7 +30828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -30922,7 +30932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -31026,7 +31036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -31130,7 +31140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -31234,7 +31244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -31338,7 +31348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -31442,7 +31452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -31546,7 +31556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -31666,13 +31676,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -31776,7 +31786,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -31880,7 +31890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -31984,7 +31994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -32088,7 +32098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -32192,7 +32202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -32296,7 +32306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -32400,7 +32410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -32504,7 +32514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -32608,7 +32618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -32712,7 +32722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -32832,7 +32842,7 @@
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32849,13 +32859,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -32959,7 +32969,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -33063,7 +33073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -33167,7 +33177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -33271,7 +33281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -33375,7 +33385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -33479,7 +33489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -33583,7 +33593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -33687,7 +33697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -33791,7 +33801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -33895,7 +33905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -34015,13 +34025,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -34125,7 +34135,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -34229,7 +34239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -34333,7 +34343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -34437,7 +34447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -34541,7 +34551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -34645,7 +34655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -34749,7 +34759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -34853,7 +34863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -34957,7 +34967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -35061,7 +35071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -35179,7 +35189,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35196,13 +35206,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -35306,7 +35316,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -35410,7 +35420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -35514,7 +35524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -35618,7 +35628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -35722,7 +35732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -35826,7 +35836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -35930,7 +35940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -36034,7 +36044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -36138,7 +36148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -36242,7 +36252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -36362,13 +36372,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -36472,7 +36482,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -36576,7 +36586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -36680,7 +36690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -36784,7 +36794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -36888,7 +36898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -36992,7 +37002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -37096,7 +37106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -37200,7 +37210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -37304,7 +37314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -37408,7 +37418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -37528,13 +37538,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -37638,7 +37648,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -37742,7 +37752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -37846,7 +37856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -37950,7 +37960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -38054,7 +38064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -38158,7 +38168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -38262,7 +38272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -38366,7 +38376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -38470,7 +38480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -38574,7 +38584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -38694,13 +38704,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -38804,7 +38814,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -38908,7 +38918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -39012,7 +39022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -39116,7 +39126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -39220,7 +39230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -39324,7 +39334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -39428,7 +39438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -39532,7 +39542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -39636,7 +39646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -39740,7 +39750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -39860,13 +39870,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -39970,7 +39980,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -40074,7 +40084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -40178,7 +40188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -40282,7 +40292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -40386,7 +40396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -40490,7 +40500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -40594,7 +40604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -40698,7 +40708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -40802,7 +40812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -40906,7 +40916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -41024,7 +41034,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41041,13 +41051,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -41151,7 +41161,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -41255,7 +41265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -41359,7 +41369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -41463,7 +41473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -41567,7 +41577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -41671,7 +41681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -41775,7 +41785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -41879,7 +41889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -41983,7 +41993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -42087,7 +42097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -42207,14 +42217,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -42318,7 +42328,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -42422,7 +42432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -42526,7 +42536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -42630,7 +42640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -42734,7 +42744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -42838,7 +42848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -42942,7 +42952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -43046,7 +43056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -43150,7 +43160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -43254,7 +43264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -43375,13 +43385,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -43485,7 +43495,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -43589,7 +43599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -43693,7 +43703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -43797,7 +43807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -43901,7 +43911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -44005,7 +44015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -44109,7 +44119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -44213,7 +44223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -44317,7 +44327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -44421,7 +44431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -44541,13 +44551,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -44651,7 +44661,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -44755,7 +44765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -44859,7 +44869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -44963,7 +44973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -45067,7 +45077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -45171,7 +45181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -45275,7 +45285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -45379,7 +45389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -45483,7 +45493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -45587,7 +45597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -45707,13 +45717,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -45817,7 +45827,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -45921,7 +45931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -46025,7 +46035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -46129,7 +46139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -46233,7 +46243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -46337,7 +46347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -46441,7 +46451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -46545,7 +46555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -46649,7 +46659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -46753,7 +46763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -46873,13 +46883,13 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -46983,7 +46993,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -47087,7 +47097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -47191,7 +47201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -47295,7 +47305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -47399,7 +47409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -47503,7 +47513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -47607,7 +47617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -47711,7 +47721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -47815,7 +47825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -47919,7 +47929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -48037,7 +48047,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -48054,13 +48064,13 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -48164,7 +48174,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -48268,7 +48278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -48372,7 +48382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -48476,7 +48486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -48580,7 +48590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -48684,7 +48694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -48788,7 +48798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -48892,7 +48902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -48996,7 +49006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -49100,7 +49110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -49220,13 +49230,13 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -49330,7 +49340,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -49434,7 +49444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -49538,7 +49548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -49642,7 +49652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -49746,7 +49756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -49850,7 +49860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -49954,7 +49964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -50058,7 +50068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -50162,7 +50172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -50266,7 +50276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -50386,13 +50396,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -50496,7 +50506,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -50600,7 +50610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -50704,7 +50714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -50808,7 +50818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -50912,7 +50922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -51016,7 +51026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -51120,7 +51130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -51224,7 +51234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -51328,7 +51338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -51432,7 +51442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -51552,13 +51562,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -51662,7 +51672,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -51766,7 +51776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -51870,7 +51880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -51974,7 +51984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -52078,7 +52088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -52182,7 +52192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -52286,7 +52296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -52390,7 +52400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -52494,7 +52504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -52598,7 +52608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -52718,13 +52728,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -52828,7 +52838,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -52932,7 +52942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -53036,7 +53046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -53140,7 +53150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -53244,7 +53254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -53348,7 +53358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -53452,7 +53462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -53556,7 +53566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -53660,7 +53670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -53764,7 +53774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -53884,14 +53894,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -53995,7 +54005,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -54099,7 +54109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -54203,7 +54213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -54307,7 +54317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -54411,7 +54421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -54515,7 +54525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -54619,7 +54629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -54723,7 +54733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -54827,7 +54837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -54931,7 +54941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -55049,7 +55059,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55066,13 +55076,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -55176,7 +55186,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -55280,7 +55290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -55384,7 +55394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -55488,7 +55498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -55592,7 +55602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -55696,7 +55706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -55800,7 +55810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -55904,7 +55914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -56008,7 +56018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -56112,7 +56122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -56232,13 +56242,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -56342,7 +56352,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -56446,7 +56456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -56550,7 +56560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -56654,7 +56664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -56758,7 +56768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -56862,7 +56872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -56966,7 +56976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -57070,7 +57080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -57174,7 +57184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -57278,7 +57288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -57398,13 +57408,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -57508,7 +57518,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -57612,7 +57622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -57716,7 +57726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -57820,7 +57830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -57924,7 +57934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -58028,7 +58038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -58132,7 +58142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -58236,7 +58246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -58340,7 +58350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -58444,7 +58454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -58564,13 +58574,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -58674,7 +58684,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -58778,7 +58788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -58882,7 +58892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -58986,7 +58996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -59090,7 +59100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -59194,7 +59204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -59298,7 +59308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -59402,7 +59412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -59506,7 +59516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -59610,7 +59620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -59730,13 +59740,13 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -59840,7 +59850,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -59944,7 +59954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -60048,7 +60058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -60152,7 +60162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -60256,7 +60266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -60360,7 +60370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -60464,7 +60474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -60568,7 +60578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -60672,7 +60682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -60776,7 +60786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -60894,7 +60904,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -60911,13 +60921,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -61021,7 +61031,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -61125,7 +61135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -61229,7 +61239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -61333,7 +61343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -61437,7 +61447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -61541,7 +61551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -61645,7 +61655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -61749,7 +61759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -61853,7 +61863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -61957,7 +61967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -62077,13 +62087,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -62187,7 +62197,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -62291,7 +62301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -62395,7 +62405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -62499,7 +62509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -62603,7 +62613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -62707,7 +62717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -62811,7 +62821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -62915,7 +62925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -63019,7 +63029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -63123,7 +63133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -63239,17 +63249,17 @@
   </sheetPr>
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -63353,7 +63363,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -63457,7 +63467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -63561,7 +63571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -63665,7 +63675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -63769,7 +63779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -63873,7 +63883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -63977,7 +63987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -64081,7 +64091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -64185,7 +64195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -64289,7 +64299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -64409,12 +64419,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -64550,7 +64560,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -64654,7 +64664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -64758,7 +64768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -64897,7 +64907,7 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -65001,7 +65011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -65107,7 +65117,7 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -65211,7 +65221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -65315,7 +65325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -65419,7 +65429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -65523,7 +65533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -65643,7 +65653,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -65652,7 +65662,7 @@
     <col min="35" max="35" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -65756,7 +65766,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -65860,7 +65870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -65964,7 +65974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -66068,7 +66078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -66172,7 +66182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -66276,7 +66286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -66380,7 +66390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -66484,7 +66494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -66588,7 +66598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -66692,7 +66702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -66812,13 +66822,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -66922,7 +66932,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -67026,7 +67036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -67130,7 +67140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -67234,7 +67244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -67338,7 +67348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -67442,7 +67452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -67546,7 +67556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -67650,7 +67660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -67754,7 +67764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -67858,7 +67868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -67976,7 +67986,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -67993,13 +68003,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -68103,7 +68113,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -68207,7 +68217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -68311,7 +68321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -68415,7 +68425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -68519,7 +68529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -68623,7 +68633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -68727,7 +68737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -68831,7 +68841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -68935,7 +68945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -69039,7 +69049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -69159,13 +69169,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -69269,7 +69279,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -69373,7 +69383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -69477,7 +69487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -69581,7 +69591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -69685,7 +69695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -69789,7 +69799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -69893,7 +69903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -69997,7 +70007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -70101,7 +70111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -70205,7 +70215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -70325,12 +70335,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -70466,7 +70476,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -70570,7 +70580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -70674,7 +70684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -70813,7 +70823,7 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -70917,7 +70927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -71023,7 +71033,7 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -71127,7 +71137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -71231,7 +71241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -71335,7 +71345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -71439,7 +71449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -71559,12 +71569,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -71700,7 +71710,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -71804,7 +71814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -71908,7 +71918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -72012,7 +72022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -72149,7 +72159,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -72253,7 +72263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -72357,7 +72367,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -72461,7 +72471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -72565,7 +72575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -72669,7 +72679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -72789,12 +72799,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -72930,7 +72940,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -73067,7 +73077,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -73171,7 +73181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -73310,7 +73320,7 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -73414,7 +73424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -73553,7 +73563,7 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -73657,7 +73667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -73761,7 +73771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -73865,7 +73875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -73969,7 +73979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -74089,12 +74099,12 @@
       <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -74230,7 +74240,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -74334,7 +74344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -74438,7 +74448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -74543,7 +74553,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -74647,7 +74657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -74752,7 +74762,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -74856,7 +74866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -74960,7 +74970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -75064,7 +75074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -75168,7 +75178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -75288,12 +75298,12 @@
       <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -75429,7 +75439,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -75533,7 +75543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -75637,7 +75647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -75742,7 +75752,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -75846,7 +75856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -75951,7 +75961,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -76055,7 +76065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -76159,7 +76169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -76263,7 +76273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -76367,7 +76377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -76487,12 +76497,12 @@
       <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -76628,7 +76638,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -76732,7 +76742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -76836,7 +76846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -76940,7 +76950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -77077,7 +77087,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -77181,7 +77191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -77285,7 +77295,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -77389,7 +77399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -77493,7 +77503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -77597,7 +77607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -77715,7 +77725,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -77732,13 +77742,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -77842,7 +77852,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -77946,7 +77956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -78050,7 +78060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -78154,7 +78164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -78258,7 +78268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -78362,7 +78372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -78466,7 +78476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -78570,7 +78580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -78674,7 +78684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -78778,7 +78788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -78898,13 +78908,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -79008,7 +79018,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -79112,7 +79122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -79216,7 +79226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -79320,7 +79330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -79424,7 +79434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -79528,7 +79538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -79632,7 +79642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -79736,7 +79746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -79840,7 +79850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -79944,7 +79954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -80060,16 +80070,16 @@
   </sheetPr>
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -80204,7 +80214,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -80341,7 +80351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -80478,144 +80488,143 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
       <c r="B4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!B4</f>
-        <v>0.93500000000000005</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!C4</f>
-        <v>0.93500000000000005</v>
+        <f>B4</f>
+        <v>1</v>
       </c>
       <c r="D4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!D4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" ref="D4:AH4" si="0">C4</f>
+        <v>1</v>
       </c>
       <c r="E4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!E4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!F4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!G4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!H4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!I4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!J4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!K4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!L4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!M4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="N4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!N4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="O4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!O4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="P4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!P4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!Q4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="R4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!R4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="S4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!S4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="T4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!T4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="U4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!U4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="V4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!V4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!W4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!X4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!Y4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!Z4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!AA4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!AB4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!AC4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!AD4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!AE4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!AF4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!AG4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!AH4</f>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -80752,144 +80761,143 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
       <c r="B6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!B6</f>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!C6</f>
-        <v>6.5000000000000002E-2</v>
+        <f>B6</f>
+        <v>0</v>
       </c>
       <c r="D6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!D6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" ref="D6:AH6" si="1">C6</f>
+        <v>0</v>
       </c>
       <c r="E6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!E6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!F6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!G6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!H6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!I6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!J6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!K6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!L6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!M6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!N6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!O6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!P6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!Q6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!R6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!S6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!T6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!U6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!V6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!W6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!X6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!Y6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!Z6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!AA6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!AB6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!AC6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!AD6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!AE6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!AF6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!AG6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!AH6</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -81026,7 +81034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -81163,7 +81171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -81270,7 +81278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -81377,7 +81385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -81497,15 +81505,15 @@
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -81642,7 +81650,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -81779,7 +81787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -81916,7 +81924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -82053,144 +82061,143 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
       <c r="B5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!B5</f>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!C5</f>
-        <v>0.97499999999999998</v>
+        <f>B5</f>
+        <v>1</v>
       </c>
       <c r="D5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!D5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" ref="D5:AH5" si="0">C5</f>
+        <v>1</v>
       </c>
       <c r="E5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!E5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!F5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!G5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!H5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!I5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!J5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!K5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!L5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!M5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="N5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!N5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="O5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!O5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="P5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!P5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!Q5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="R5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!R5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="S5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!S5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="T5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!T5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="U5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!U5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="V5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!V5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!W5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!X5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!Y5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!Z5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!AA5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!AB5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!AC5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!AD5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!AE5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!AF5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!AG5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!AH5</f>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -82327,144 +82334,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
       <c r="B7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!B7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!C7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!D7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!E7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!F7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!G7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!H7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!I7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!J7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!K7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!L7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!M7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!N7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!O7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!P7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!Q7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!R7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!S7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!T7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!U7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!V7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!W7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!X7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!Y7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!Z7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!AA7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!AB7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!AC7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!AD7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!AE7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!AF7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!AG7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!AH7</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -82601,7 +82575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -82705,7 +82679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -82809,7 +82783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -82929,12 +82903,12 @@
       <selection activeCell="AK13" sqref="AK13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -83069,7 +83043,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -83206,7 +83180,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -83343,7 +83317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -83480,7 +83454,7 @@
         <v>0.42074999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -83617,7 +83591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -83754,7 +83728,7 @@
         <v>2.9249999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -83891,7 +83865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -84028,7 +84002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -84135,7 +84109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -84242,7 +84216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -84365,12 +84339,12 @@
       <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -84506,7 +84480,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -84610,7 +84584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -84714,7 +84688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -84819,7 +84793,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -84923,7 +84897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -85028,7 +85002,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -85132,7 +85106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -85236,7 +85210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -85340,7 +85314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -85444,7 +85418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -85564,12 +85538,12 @@
       <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -85705,7 +85679,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -85809,7 +85783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -85913,7 +85887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -86018,7 +85992,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -86122,7 +86096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -86227,7 +86201,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -86331,7 +86305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -86435,7 +86409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -86539,7 +86513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -86643,7 +86617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -86763,12 +86737,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -86904,7 +86878,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -87041,7 +87015,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -87145,7 +87119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -87282,7 +87256,7 @@
         <v>0.42074999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -87386,7 +87360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -87523,7 +87497,7 @@
         <v>2.9249999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -87627,7 +87601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -87731,7 +87705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -87835,7 +87809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -87939,7 +87913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -88052,6 +88026,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -88311,43 +88314,41 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A47F51E-A031-4643-90C7-2297BF57AE8C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C758FEB-19A2-4761-B149-21768A01C35F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C758FEB-19A2-4761-B149-21768A01C35F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6F0EA91-969A-451A-A959-5F9B92CDB22D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6F0EA91-969A-451A-A959-5F9B92CDB22D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A47F51E-A031-4643-90C7-2297BF57AE8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
+++ b/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
@@ -88055,8 +88055,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -88082,6 +88082,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -88182,6 +88183,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -88334,21 +88340,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A47F51E-A031-4643-90C7-2297BF57AE8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{729B5BC7-204B-4F4C-9E3D-3D7F7206AFF5}"/>
 </file>